--- a/biology/Zoologie/La_Grenouille_et_la_Baleine/La_Grenouille_et_la_Baleine.xlsx
+++ b/biology/Zoologie/La_Grenouille_et_la_Baleine/La_Grenouille_et_la_Baleine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grenouille et la Baleine est un film québécois réalisé par Jean-Claude Lord sorti en 1988. Il fait partie de la série de films pour la jeunesse Contes pour tous produits par Rock Demers. (Conte pour tous #6, dédié aux enfants de l'ère du verseau et à leurs parents.)
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En arrivant à Mingan, sur la Côte-Nord du Saint-Laurent, un couple de visiteurs aperçoit une jeune fille flottant sur la mer. Croyant venir à son secours, ils découvrent que Daphné, 11 ans, est en train d’enregistrer le chant des baleines pour un spectacle. Daphné connaît une relation exceptionnelle avec les baleines et les dauphins qu’elle comprend bien grâce à son ouïe très développée. Mais sa vie risque de basculer quand l'un de ses grands-pères prend la décision de vendre l’auberge du bord de mer.
 </t>
@@ -542,9 +556,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Source : IMDb et Films du Québec[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Source : IMDb et Films du Québec
 Titre original : La Grenouille et la Baleine
 Réalisation : Jean-Claude Lord
 Scénario : Jacques Bobet, André Melançon Idée original de Jacques Bobet
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fanny Lauzier : Daphné
@@ -642,7 +660,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grenouille et la Baleine est le sixième film de la série des Contes pour tous et le seul film de cette série que réalise Jean-Claude Lord, pour qui ce film marque un retour au cinéma après le succès de la télé-série Lance et compte.  Il s'agit également du premier film que Lord tourne en français depuis Éclair au chocolat, qui date de 1979.
 L'idée du film revient à Jacques Bobet, producteur de l'Office national du film (ONF) ayant notamment collaboré avec Jacques Cousteau sur le documentaire Les Pièges de la mer.  Le scénario de Bobet est remanié par André Melançon, réalisateur de La Guerre des tuques et de Bach et bottine, deux films précédents de la série.
@@ -676,7 +696,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1989 : Prix Bobine d'Or du plus grand nombre d’entrées au box-office canadien</t>
         </is>
